--- a/Misa_template.xlsx
+++ b/Misa_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTA-HAN\Desktop\VTA\lotus_warehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E45D02-6933-486C-BDC8-1B0C314C08A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C7572-221D-4D89-8B68-000C11F35DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D09A305-D742-466F-AD65-26DD6CA8D67C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6D09A305-D742-466F-AD65-26DD6CA8D67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1769,14 +1769,14 @@
   <dimension ref="A1:R345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
